--- a/BalanceSheet/DVN_bal.xlsx
+++ b/BalanceSheet/DVN_bal.xlsx
@@ -1554,19 +1554,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>51000000.0</v>
+        <v>904000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>100000000.0</v>
+        <v>977000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>-189000000.0</v>
+        <v>782000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-71000000.0</v>
+        <v>1061000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>105000000.0</v>
+        <v>1158000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>513000000.0</v>
@@ -2774,7 +2774,7 @@
         <v>-311000000.0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>-40000000.0</v>
+        <v>341000000.0</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>523000000.0</v>
